--- a/Notas/ArquivosParalelos/PIB Per Capita.xlsx
+++ b/Notas/ArquivosParalelos/PIB Per Capita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,451 +434,370 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>População</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>População</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PIB</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Acre</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>906876</v>
+      </c>
       <c r="C2" t="n">
-        <v>906876</v>
-      </c>
-      <c r="D2" t="n">
         <v>15630</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Alagoas</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>3365351</v>
+      </c>
       <c r="C3" t="n">
-        <v>3365351</v>
-      </c>
-      <c r="D3" t="n">
         <v>58964</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Amapá</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>877613</v>
+      </c>
       <c r="C4" t="n">
-        <v>877613</v>
-      </c>
-      <c r="D4" t="n">
         <v>17497</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Amazonas</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>4269995</v>
+      </c>
       <c r="C5" t="n">
-        <v>4269995</v>
-      </c>
-      <c r="D5" t="n">
         <v>108181</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Bahia</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>14985284</v>
+      </c>
       <c r="C6" t="n">
-        <v>14985284</v>
-      </c>
-      <c r="D6" t="n">
         <v>293241</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Ceará</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>9240580</v>
+      </c>
       <c r="C7" t="n">
-        <v>9240580</v>
-      </c>
-      <c r="D7" t="n">
         <v>163575</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Distrito Federal</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>3094325</v>
+      </c>
       <c r="C8" t="n">
-        <v>3094325</v>
-      </c>
-      <c r="D8" t="n">
         <v>273614</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Espírito Santo</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>4108508</v>
+      </c>
       <c r="C9" t="n">
-        <v>4108508</v>
-      </c>
-      <c r="D9" t="n">
         <v>137346</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Goiás</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>7206589</v>
+      </c>
       <c r="C10" t="n">
-        <v>7206589</v>
-      </c>
-      <c r="D10" t="n">
         <v>208672</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Maranhão</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>7153262</v>
+      </c>
       <c r="C11" t="n">
-        <v>7153262</v>
-      </c>
-      <c r="D11" t="n">
         <v>97340</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Mato Grosso</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>3567234</v>
+      </c>
       <c r="C12" t="n">
-        <v>3567234</v>
-      </c>
-      <c r="D12" t="n">
         <v>142122</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Mato Grosso do Sul</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>2839188</v>
+      </c>
       <c r="C13" t="n">
-        <v>2839188</v>
-      </c>
-      <c r="D13" t="n">
         <v>106943</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Minas Gerais</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>21411923</v>
+      </c>
       <c r="C14" t="n">
-        <v>21411923</v>
-      </c>
-      <c r="D14" t="n">
         <v>651873</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Pará</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>8777124</v>
+      </c>
       <c r="C15" t="n">
-        <v>8777124</v>
-      </c>
-      <c r="D15" t="n">
         <v>466377</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Paraíba</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>4059905</v>
+      </c>
       <c r="C16" t="n">
-        <v>4059905</v>
-      </c>
-      <c r="D16" t="n">
         <v>67986</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Paraná</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>11597484</v>
+      </c>
       <c r="C17" t="n">
-        <v>11597484</v>
-      </c>
-      <c r="D17" t="n">
         <v>178377</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Pernambuco</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>9674793</v>
+      </c>
       <c r="C18" t="n">
-        <v>9674793</v>
-      </c>
-      <c r="D18" t="n">
         <v>197853</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Piauí</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>3289290</v>
+      </c>
       <c r="C19" t="n">
-        <v>3289290</v>
-      </c>
-      <c r="D19" t="n">
         <v>52781</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>17463349</v>
+      </c>
       <c r="C20" t="n">
-        <v>17463349</v>
-      </c>
-      <c r="D20" t="n">
         <v>779928</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Rio Grande do Norte</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>3560903</v>
+      </c>
       <c r="C21" t="n">
-        <v>3560903</v>
-      </c>
-      <c r="D21" t="n">
         <v>71337</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Rio Grande do Sul</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>11466630</v>
+      </c>
       <c r="C22" t="n">
-        <v>11466630</v>
-      </c>
-      <c r="D22" t="n">
         <v>482464</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Rondônia</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>1815278</v>
+      </c>
       <c r="C23" t="n">
-        <v>1815278</v>
-      </c>
-      <c r="D23" t="n">
         <v>47091</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Roraima</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>652713</v>
+      </c>
       <c r="C24" t="n">
-        <v>652713</v>
-      </c>
-      <c r="D24" t="n">
         <v>14292</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>7338473</v>
+      </c>
       <c r="C25" t="n">
-        <v>7338473</v>
-      </c>
-      <c r="D25" t="n">
         <v>323264</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>46649132</v>
+      </c>
       <c r="C26" t="n">
-        <v>46649132</v>
-      </c>
-      <c r="D26" t="n">
         <v>44689</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Sergipe</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>2338474</v>
+      </c>
       <c r="C27" t="n">
-        <v>2338474</v>
-      </c>
-      <c r="D27" t="n">
         <v>2348338</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Tocantins</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>1607363</v>
+      </c>
       <c r="C28" t="n">
-        <v>1607363</v>
-      </c>
-      <c r="D28" t="n">
         <v>39356</v>
       </c>
     </row>
